--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hgf-St14.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hgf-St14.xlsx
@@ -546,10 +546,10 @@
         <v>0.280937</v>
       </c>
       <c r="I2">
-        <v>0.001329496382395751</v>
+        <v>0.001628901849080777</v>
       </c>
       <c r="J2">
-        <v>0.001329496382395751</v>
+        <v>0.001628901849080777</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.886429</v>
+        <v>1.424886333333333</v>
       </c>
       <c r="N2">
-        <v>2.659287</v>
+        <v>4.274659</v>
       </c>
       <c r="O2">
-        <v>0.4286416829438365</v>
+        <v>0.3775790263072122</v>
       </c>
       <c r="P2">
-        <v>0.4286416829438364</v>
+        <v>0.3775790263072122</v>
       </c>
       <c r="Q2">
-        <v>0.08301023465766667</v>
+        <v>0.1334344306092222</v>
       </c>
       <c r="R2">
-        <v>0.7470921119189999</v>
+        <v>1.200909875483</v>
       </c>
       <c r="S2">
-        <v>0.0005698775668178569</v>
+        <v>0.0006150391741259374</v>
       </c>
       <c r="T2">
-        <v>0.0005698775668178567</v>
+        <v>0.0006150391741259373</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.280937</v>
       </c>
       <c r="I3">
-        <v>0.001329496382395751</v>
+        <v>0.001628901849080777</v>
       </c>
       <c r="J3">
-        <v>0.001329496382395751</v>
+        <v>0.001628901849080777</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>1.082561</v>
       </c>
       <c r="O3">
-        <v>0.1744944298713763</v>
+        <v>0.09562220712767076</v>
       </c>
       <c r="P3">
-        <v>0.1744944298713763</v>
+        <v>0.09562220712767076</v>
       </c>
       <c r="Q3">
         <v>0.03379238218411111</v>
@@ -638,10 +638,10 @@
         <v>0.304131439657</v>
       </c>
       <c r="S3">
-        <v>0.0002319897132622037</v>
+        <v>0.000155759190003448</v>
       </c>
       <c r="T3">
-        <v>0.0002319897132622037</v>
+        <v>0.0001557591900034479</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.280937</v>
       </c>
       <c r="I4">
-        <v>0.001329496382395751</v>
+        <v>0.001628901849080777</v>
       </c>
       <c r="J4">
-        <v>0.001329496382395751</v>
+        <v>0.001628901849080777</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.309008</v>
+        <v>0.6353876666666666</v>
       </c>
       <c r="N4">
-        <v>0.9270240000000001</v>
+        <v>1.906163</v>
       </c>
       <c r="O4">
-        <v>0.1494239348702592</v>
+        <v>0.1683706629050024</v>
       </c>
       <c r="P4">
-        <v>0.1494239348702592</v>
+        <v>0.1683706629050024</v>
       </c>
       <c r="Q4">
-        <v>0.02893726016533333</v>
+        <v>0.05950130163677777</v>
       </c>
       <c r="R4">
-        <v>0.260435341488</v>
+        <v>0.5355117147309999</v>
       </c>
       <c r="S4">
-        <v>0.0001986585808533479</v>
+        <v>0.0002742592841369145</v>
       </c>
       <c r="T4">
-        <v>0.0001986585808533479</v>
+        <v>0.0002742592841369145</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.280937</v>
       </c>
       <c r="I5">
-        <v>0.001329496382395751</v>
+        <v>0.001628901849080777</v>
       </c>
       <c r="J5">
-        <v>0.001329496382395751</v>
+        <v>0.001628901849080777</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.228958</v>
+        <v>0.4155976666666667</v>
       </c>
       <c r="N5">
-        <v>0.686874</v>
+        <v>1.246793</v>
       </c>
       <c r="O5">
-        <v>0.1107149500337364</v>
+        <v>0.110128758094306</v>
       </c>
       <c r="P5">
-        <v>0.1107149500337364</v>
+        <v>0.110128758094306</v>
       </c>
       <c r="Q5">
-        <v>0.02144092454866667</v>
+        <v>0.03891892056011111</v>
       </c>
       <c r="R5">
-        <v>0.192968320938</v>
+        <v>0.350270285041</v>
       </c>
       <c r="S5">
-        <v>0.0001471951255469788</v>
+        <v>0.0001793889376967847</v>
       </c>
       <c r="T5">
-        <v>0.0001471951255469788</v>
+        <v>0.0001793889376967846</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>0.280937</v>
       </c>
       <c r="I6">
-        <v>0.001329496382395751</v>
+        <v>0.001628901849080777</v>
       </c>
       <c r="J6">
-        <v>0.001329496382395751</v>
+        <v>0.001628901849080777</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2827466666666667</v>
+        <v>0.937018</v>
       </c>
       <c r="N6">
-        <v>0.8482400000000001</v>
+        <v>2.811054</v>
       </c>
       <c r="O6">
-        <v>0.1367250022807918</v>
+        <v>0.2482993455658087</v>
       </c>
       <c r="P6">
-        <v>0.1367250022807917</v>
+        <v>0.2482993455658087</v>
       </c>
       <c r="Q6">
-        <v>0.02647800009777778</v>
+        <v>0.08774767528866667</v>
       </c>
       <c r="R6">
-        <v>0.23830200088</v>
+        <v>0.7897290775979999</v>
       </c>
       <c r="S6">
-        <v>0.0001817753959153634</v>
+        <v>0.0004044552631176926</v>
       </c>
       <c r="T6">
-        <v>0.0001817753959153634</v>
+        <v>0.0004044552631176925</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>30.802262</v>
       </c>
       <c r="I7">
-        <v>0.1457675418282608</v>
+        <v>0.1785947081647151</v>
       </c>
       <c r="J7">
-        <v>0.1457675418282608</v>
+        <v>0.178594708164715</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.886429</v>
+        <v>1.424886333333333</v>
       </c>
       <c r="N7">
-        <v>2.659287</v>
+        <v>4.274659</v>
       </c>
       <c r="O7">
-        <v>0.4286416829438365</v>
+        <v>0.3775790263072122</v>
       </c>
       <c r="P7">
-        <v>0.4286416829438364</v>
+        <v>0.3775790263072122</v>
       </c>
       <c r="Q7">
-        <v>9.101339434132667</v>
+        <v>14.62990738651756</v>
       </c>
       <c r="R7">
-        <v>81.91205490719399</v>
+        <v>131.669166478658</v>
       </c>
       <c r="S7">
-        <v>0.06248204444785177</v>
+        <v>0.06743361601245383</v>
       </c>
       <c r="T7">
-        <v>0.06248204444785176</v>
+        <v>0.06743361601245382</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>30.802262</v>
       </c>
       <c r="I8">
-        <v>0.1457675418282608</v>
+        <v>0.1785947081647151</v>
       </c>
       <c r="J8">
-        <v>0.1457675418282608</v>
+        <v>0.178594708164715</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>1.082561</v>
       </c>
       <c r="O8">
-        <v>0.1744944298713763</v>
+        <v>0.09562220712767076</v>
       </c>
       <c r="P8">
-        <v>0.1744944298713763</v>
+        <v>0.09562220712767076</v>
       </c>
       <c r="Q8">
         <v>3.705036394775778</v>
@@ -948,10 +948,10 @@
         <v>33.345327552982</v>
       </c>
       <c r="S8">
-        <v>0.02543562410507435</v>
+        <v>0.0170776201760323</v>
       </c>
       <c r="T8">
-        <v>0.02543562410507435</v>
+        <v>0.01707762017603229</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>30.802262</v>
       </c>
       <c r="I9">
-        <v>0.1457675418282608</v>
+        <v>0.1785947081647151</v>
       </c>
       <c r="J9">
-        <v>0.1457675418282608</v>
+        <v>0.178594708164715</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.309008</v>
+        <v>0.6353876666666666</v>
       </c>
       <c r="N9">
-        <v>0.9270240000000001</v>
+        <v>1.906163</v>
       </c>
       <c r="O9">
-        <v>0.1494239348702592</v>
+        <v>0.1683706629050024</v>
       </c>
       <c r="P9">
-        <v>0.1494239348702592</v>
+        <v>0.1683706629050024</v>
       </c>
       <c r="Q9">
-        <v>3.172715125365333</v>
+        <v>6.523792460078443</v>
       </c>
       <c r="R9">
-        <v>28.554436128288</v>
+        <v>58.71413214070599</v>
       </c>
       <c r="S9">
-        <v>0.02178115967634383</v>
+        <v>0.03007010940501851</v>
       </c>
       <c r="T9">
-        <v>0.02178115967634382</v>
+        <v>0.03007010940501851</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>30.802262</v>
       </c>
       <c r="I10">
-        <v>0.1457675418282608</v>
+        <v>0.1785947081647151</v>
       </c>
       <c r="J10">
-        <v>0.1457675418282608</v>
+        <v>0.178594708164715</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.228958</v>
+        <v>0.4155976666666667</v>
       </c>
       <c r="N10">
-        <v>0.686874</v>
+        <v>1.246793</v>
       </c>
       <c r="O10">
-        <v>0.1107149500337364</v>
+        <v>0.110128758094306</v>
       </c>
       <c r="P10">
-        <v>0.1107149500337364</v>
+        <v>0.110128758094306</v>
       </c>
       <c r="Q10">
-        <v>2.350808100998667</v>
+        <v>4.267116071751778</v>
       </c>
       <c r="R10">
-        <v>21.157272908988</v>
+        <v>38.404044645766</v>
       </c>
       <c r="S10">
-        <v>0.01613864611005647</v>
+        <v>0.01966841341239509</v>
       </c>
       <c r="T10">
-        <v>0.01613864611005647</v>
+        <v>0.01966841341239508</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>30.802262</v>
       </c>
       <c r="I11">
-        <v>0.1457675418282608</v>
+        <v>0.1785947081647151</v>
       </c>
       <c r="J11">
-        <v>0.1457675418282608</v>
+        <v>0.178594708164715</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2827466666666667</v>
+        <v>0.937018</v>
       </c>
       <c r="N11">
-        <v>0.8482400000000001</v>
+        <v>2.811054</v>
       </c>
       <c r="O11">
-        <v>0.1367250022807918</v>
+        <v>0.2482993455658087</v>
       </c>
       <c r="P11">
-        <v>0.1367250022807917</v>
+        <v>0.2482993455658087</v>
       </c>
       <c r="Q11">
-        <v>2.903078968764444</v>
+        <v>9.620757978238666</v>
       </c>
       <c r="R11">
-        <v>26.12771071888</v>
+        <v>86.586821804148</v>
       </c>
       <c r="S11">
-        <v>0.01993006748893436</v>
+        <v>0.04434494915881534</v>
       </c>
       <c r="T11">
-        <v>0.01993006748893436</v>
+        <v>0.04434494915881533</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>30.40955033333333</v>
+        <v>23.67539566666666</v>
       </c>
       <c r="H12">
-        <v>91.22865099999999</v>
+        <v>71.02618699999999</v>
       </c>
       <c r="I12">
-        <v>0.4317272608283866</v>
+        <v>0.4118171950916292</v>
       </c>
       <c r="J12">
-        <v>0.4317272608283866</v>
+        <v>0.4118171950916292</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.886429</v>
+        <v>1.424886333333333</v>
       </c>
       <c r="N12">
-        <v>2.659287</v>
+        <v>4.274659</v>
       </c>
       <c r="O12">
-        <v>0.4286416829438365</v>
+        <v>0.3775790263072122</v>
       </c>
       <c r="P12">
-        <v>0.4286416829438364</v>
+        <v>0.3775790263072122</v>
       </c>
       <c r="Q12">
-        <v>26.95590729242633</v>
+        <v>33.73474772169255</v>
       </c>
       <c r="R12">
-        <v>242.603165631837</v>
+        <v>303.6127294952329</v>
       </c>
       <c r="S12">
-        <v>0.1850562996542123</v>
+        <v>0.1554935355392646</v>
       </c>
       <c r="T12">
-        <v>0.1850562996542122</v>
+        <v>0.1554935355392646</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>30.40955033333333</v>
+        <v>23.67539566666666</v>
       </c>
       <c r="H13">
-        <v>91.22865099999999</v>
+        <v>71.02618699999999</v>
       </c>
       <c r="I13">
-        <v>0.4317272608283866</v>
+        <v>0.4118171950916292</v>
       </c>
       <c r="J13">
-        <v>0.4317272608283866</v>
+        <v>0.4118171950916292</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>1.082561</v>
       </c>
       <c r="O13">
-        <v>0.1744944298713763</v>
+        <v>0.09562220712767076</v>
       </c>
       <c r="P13">
-        <v>0.1744944298713763</v>
+        <v>0.09562220712767076</v>
       </c>
       <c r="Q13">
-        <v>10.97339773946789</v>
+        <v>8.543353336100777</v>
       </c>
       <c r="R13">
-        <v>98.76057965521099</v>
+        <v>76.890180024907</v>
       </c>
       <c r="S13">
-        <v>0.07533400223818028</v>
+        <v>0.03937886912778817</v>
       </c>
       <c r="T13">
-        <v>0.07533400223818028</v>
+        <v>0.03937886912778817</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>30.40955033333333</v>
+        <v>23.67539566666666</v>
       </c>
       <c r="H14">
-        <v>91.22865099999999</v>
+        <v>71.02618699999999</v>
       </c>
       <c r="I14">
-        <v>0.4317272608283866</v>
+        <v>0.4118171950916292</v>
       </c>
       <c r="J14">
-        <v>0.4317272608283866</v>
+        <v>0.4118171950916292</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.309008</v>
+        <v>0.6353876666666666</v>
       </c>
       <c r="N14">
-        <v>0.9270240000000001</v>
+        <v>1.906163</v>
       </c>
       <c r="O14">
-        <v>0.1494239348702592</v>
+        <v>0.1683706629050024</v>
       </c>
       <c r="P14">
-        <v>0.1494239348702592</v>
+        <v>0.1683706629050024</v>
       </c>
       <c r="Q14">
-        <v>9.396794329402665</v>
+        <v>15.04305441005344</v>
       </c>
       <c r="R14">
-        <v>84.57114896462399</v>
+        <v>135.387489690481</v>
       </c>
       <c r="S14">
-        <v>0.06451038610373627</v>
+        <v>0.0693379341332563</v>
       </c>
       <c r="T14">
-        <v>0.06451038610373626</v>
+        <v>0.06933793413325628</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>30.40955033333333</v>
+        <v>23.67539566666666</v>
       </c>
       <c r="H15">
-        <v>91.22865099999999</v>
+        <v>71.02618699999999</v>
       </c>
       <c r="I15">
-        <v>0.4317272608283866</v>
+        <v>0.4118171950916292</v>
       </c>
       <c r="J15">
-        <v>0.4317272608283866</v>
+        <v>0.4118171950916292</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.228958</v>
+        <v>0.4155976666666667</v>
       </c>
       <c r="N15">
-        <v>0.686874</v>
+        <v>1.246793</v>
       </c>
       <c r="O15">
-        <v>0.1107149500337364</v>
+        <v>0.110128758094306</v>
       </c>
       <c r="P15">
-        <v>0.1107149500337364</v>
+        <v>0.110128758094306</v>
       </c>
       <c r="Q15">
-        <v>6.962509825219332</v>
+        <v>9.839439196476777</v>
       </c>
       <c r="R15">
-        <v>62.66258842697399</v>
+        <v>88.55495276829099</v>
       </c>
       <c r="S15">
-        <v>0.0477986621108167</v>
+        <v>0.04535291625732166</v>
       </c>
       <c r="T15">
-        <v>0.04779866211081669</v>
+        <v>0.04535291625732166</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>30.40955033333333</v>
+        <v>23.67539566666666</v>
       </c>
       <c r="H16">
-        <v>91.22865099999999</v>
+        <v>71.02618699999999</v>
       </c>
       <c r="I16">
-        <v>0.4317272608283866</v>
+        <v>0.4118171950916292</v>
       </c>
       <c r="J16">
-        <v>0.4317272608283866</v>
+        <v>0.4118171950916292</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2827466666666667</v>
+        <v>0.937018</v>
       </c>
       <c r="N16">
-        <v>0.8482400000000001</v>
+        <v>2.811054</v>
       </c>
       <c r="O16">
-        <v>0.1367250022807918</v>
+        <v>0.2482993455658087</v>
       </c>
       <c r="P16">
-        <v>0.1367250022807917</v>
+        <v>0.2482993455658087</v>
       </c>
       <c r="Q16">
-        <v>8.598198991582223</v>
+        <v>22.18427189678867</v>
       </c>
       <c r="R16">
-        <v>77.38379092424</v>
+        <v>199.658447071098</v>
       </c>
       <c r="S16">
-        <v>0.05902791072144115</v>
+        <v>0.1022539400339985</v>
       </c>
       <c r="T16">
-        <v>0.05902791072144113</v>
+        <v>0.1022539400339985</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2934873333333334</v>
+        <v>0.3314846666666666</v>
       </c>
       <c r="H17">
-        <v>0.8804620000000001</v>
+        <v>0.9944539999999999</v>
       </c>
       <c r="I17">
-        <v>0.004166667415957768</v>
+        <v>0.005765947381177186</v>
       </c>
       <c r="J17">
-        <v>0.004166667415957768</v>
+        <v>0.005765947381177185</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.886429</v>
+        <v>1.424886333333333</v>
       </c>
       <c r="N17">
-        <v>2.659287</v>
+        <v>4.274659</v>
       </c>
       <c r="O17">
-        <v>0.4286416829438365</v>
+        <v>0.3775790263072122</v>
       </c>
       <c r="P17">
-        <v>0.4286416829438364</v>
+        <v>0.3775790263072122</v>
       </c>
       <c r="Q17">
-        <v>0.2601556833993334</v>
+        <v>0.4723279712428888</v>
       </c>
       <c r="R17">
-        <v>2.341401150594</v>
+        <v>4.250951741185999</v>
       </c>
       <c r="S17">
-        <v>0.001786007333443384</v>
+        <v>0.002177100797923502</v>
       </c>
       <c r="T17">
-        <v>0.001786007333443384</v>
+        <v>0.002177100797923502</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.2934873333333334</v>
+        <v>0.3314846666666666</v>
       </c>
       <c r="H18">
-        <v>0.8804620000000001</v>
+        <v>0.9944539999999999</v>
       </c>
       <c r="I18">
-        <v>0.004166667415957768</v>
+        <v>0.005765947381177186</v>
       </c>
       <c r="J18">
-        <v>0.004166667415957768</v>
+        <v>0.005765947381177185</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>1.082561</v>
       </c>
       <c r="O18">
-        <v>0.1744944298713763</v>
+        <v>0.09562220712767076</v>
       </c>
       <c r="P18">
-        <v>0.1744944298713763</v>
+        <v>0.09562220712767076</v>
       </c>
       <c r="Q18">
-        <v>0.1059059803535556</v>
+        <v>0.1196174574104444</v>
       </c>
       <c r="R18">
-        <v>0.9531538231820001</v>
+        <v>1.076557116694</v>
       </c>
       <c r="S18">
-        <v>0.0007270602552111912</v>
+        <v>0.0005513526147701757</v>
       </c>
       <c r="T18">
-        <v>0.0007270602552111912</v>
+        <v>0.0005513526147701756</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.2934873333333334</v>
+        <v>0.3314846666666666</v>
       </c>
       <c r="H19">
-        <v>0.8804620000000001</v>
+        <v>0.9944539999999999</v>
       </c>
       <c r="I19">
-        <v>0.004166667415957768</v>
+        <v>0.005765947381177186</v>
       </c>
       <c r="J19">
-        <v>0.004166667415957768</v>
+        <v>0.005765947381177185</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.309008</v>
+        <v>0.6353876666666666</v>
       </c>
       <c r="N19">
-        <v>0.9270240000000001</v>
+        <v>1.906163</v>
       </c>
       <c r="O19">
-        <v>0.1494239348702592</v>
+        <v>0.1683706629050024</v>
       </c>
       <c r="P19">
-        <v>0.1494239348702592</v>
+        <v>0.1683706629050024</v>
       </c>
       <c r="Q19">
-        <v>0.09068993389866668</v>
+        <v>0.2106212688891111</v>
       </c>
       <c r="R19">
-        <v>0.8162094050880001</v>
+        <v>1.895591420002</v>
       </c>
       <c r="S19">
-        <v>0.0006225998405881048</v>
+        <v>0.0009708163828441651</v>
       </c>
       <c r="T19">
-        <v>0.0006225998405881047</v>
+        <v>0.0009708163828441649</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.2934873333333334</v>
+        <v>0.3314846666666666</v>
       </c>
       <c r="H20">
-        <v>0.8804620000000001</v>
+        <v>0.9944539999999999</v>
       </c>
       <c r="I20">
-        <v>0.004166667415957768</v>
+        <v>0.005765947381177186</v>
       </c>
       <c r="J20">
-        <v>0.004166667415957768</v>
+        <v>0.005765947381177185</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.228958</v>
+        <v>0.4155976666666667</v>
       </c>
       <c r="N20">
-        <v>0.686874</v>
+        <v>1.246793</v>
       </c>
       <c r="O20">
-        <v>0.1107149500337364</v>
+        <v>0.110128758094306</v>
       </c>
       <c r="P20">
-        <v>0.1107149500337364</v>
+        <v>0.110128758094306</v>
       </c>
       <c r="Q20">
-        <v>0.06719627286533335</v>
+        <v>0.1377642540024444</v>
       </c>
       <c r="R20">
-        <v>0.604766455788</v>
+        <v>1.239878286022</v>
       </c>
       <c r="S20">
-        <v>0.0004613123747649618</v>
+        <v>0.0006349966243261595</v>
       </c>
       <c r="T20">
-        <v>0.0004613123747649617</v>
+        <v>0.0006349966243261594</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.2934873333333334</v>
+        <v>0.3314846666666666</v>
       </c>
       <c r="H21">
-        <v>0.8804620000000001</v>
+        <v>0.9944539999999999</v>
       </c>
       <c r="I21">
-        <v>0.004166667415957768</v>
+        <v>0.005765947381177186</v>
       </c>
       <c r="J21">
-        <v>0.004166667415957768</v>
+        <v>0.005765947381177185</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.2827466666666667</v>
+        <v>0.937018</v>
       </c>
       <c r="N21">
-        <v>0.8482400000000001</v>
+        <v>2.811054</v>
       </c>
       <c r="O21">
-        <v>0.1367250022807918</v>
+        <v>0.2482993455658087</v>
       </c>
       <c r="P21">
-        <v>0.1367250022807917</v>
+        <v>0.2482993455658087</v>
       </c>
       <c r="Q21">
-        <v>0.08298256520888891</v>
+        <v>0.3106070993906667</v>
       </c>
       <c r="R21">
-        <v>0.7468430868800001</v>
+        <v>2.795463894516</v>
       </c>
       <c r="S21">
-        <v>0.0005696876119501266</v>
+        <v>0.001431680961313183</v>
       </c>
       <c r="T21">
-        <v>0.0005696876119501265</v>
+        <v>0.001431680961313183</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>29.37284333333333</v>
+        <v>23.12211433333333</v>
       </c>
       <c r="H22">
-        <v>88.11852999999999</v>
+        <v>69.366343</v>
       </c>
       <c r="I22">
-        <v>0.4170090335449991</v>
+        <v>0.4021932475133977</v>
       </c>
       <c r="J22">
-        <v>0.4170090335449991</v>
+        <v>0.4021932475133977</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.886429</v>
+        <v>1.424886333333333</v>
       </c>
       <c r="N22">
-        <v>2.659287</v>
+        <v>4.274659</v>
       </c>
       <c r="O22">
-        <v>0.4286416829438365</v>
+        <v>0.3775790263072122</v>
       </c>
       <c r="P22">
-        <v>0.4286416829438364</v>
+        <v>0.3775790263072122</v>
       </c>
       <c r="Q22">
-        <v>26.03694014312333</v>
+        <v>32.94638471133744</v>
       </c>
       <c r="R22">
-        <v>234.33246128811</v>
+        <v>296.517462402037</v>
       </c>
       <c r="S22">
-        <v>0.1787474539415112</v>
+        <v>0.1518597347834443</v>
       </c>
       <c r="T22">
-        <v>0.1787474539415111</v>
+        <v>0.1518597347834443</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>29.37284333333333</v>
+        <v>23.12211433333333</v>
       </c>
       <c r="H23">
-        <v>88.11852999999999</v>
+        <v>69.366343</v>
       </c>
       <c r="I23">
-        <v>0.4170090335449991</v>
+        <v>0.4021932475133977</v>
       </c>
       <c r="J23">
-        <v>0.4170090335449991</v>
+        <v>0.4021932475133977</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>1.082561</v>
       </c>
       <c r="O23">
-        <v>0.1744944298713763</v>
+        <v>0.09562220712767076</v>
       </c>
       <c r="P23">
-        <v>0.1744944298713763</v>
+        <v>0.09562220712767076</v>
       </c>
       <c r="Q23">
-        <v>10.59929821725889</v>
+        <v>8.343699738269223</v>
       </c>
       <c r="R23">
-        <v>95.39368395533</v>
+        <v>75.093297644423</v>
       </c>
       <c r="S23">
-        <v>0.07276575355964823</v>
+        <v>0.03845860601907667</v>
       </c>
       <c r="T23">
-        <v>0.07276575355964823</v>
+        <v>0.03845860601907667</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>29.37284333333333</v>
+        <v>23.12211433333333</v>
       </c>
       <c r="H24">
-        <v>88.11852999999999</v>
+        <v>69.366343</v>
       </c>
       <c r="I24">
-        <v>0.4170090335449991</v>
+        <v>0.4021932475133977</v>
       </c>
       <c r="J24">
-        <v>0.4170090335449991</v>
+        <v>0.4021932475133977</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.309008</v>
+        <v>0.6353876666666666</v>
       </c>
       <c r="N24">
-        <v>0.9270240000000001</v>
+        <v>1.906163</v>
       </c>
       <c r="O24">
-        <v>0.1494239348702592</v>
+        <v>0.1683706629050024</v>
       </c>
       <c r="P24">
-        <v>0.1494239348702592</v>
+        <v>0.1683706629050024</v>
       </c>
       <c r="Q24">
-        <v>9.076443572746667</v>
+        <v>14.69150627465655</v>
       </c>
       <c r="R24">
-        <v>81.68799215471999</v>
+        <v>132.223556471909</v>
       </c>
       <c r="S24">
-        <v>0.0623111306687377</v>
+        <v>0.06771754369974647</v>
       </c>
       <c r="T24">
-        <v>0.06231113066873768</v>
+        <v>0.06771754369974646</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>29.37284333333333</v>
+        <v>23.12211433333333</v>
       </c>
       <c r="H25">
-        <v>88.11852999999999</v>
+        <v>69.366343</v>
       </c>
       <c r="I25">
-        <v>0.4170090335449991</v>
+        <v>0.4021932475133977</v>
       </c>
       <c r="J25">
-        <v>0.4170090335449991</v>
+        <v>0.4021932475133977</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.228958</v>
+        <v>0.4155976666666667</v>
       </c>
       <c r="N25">
-        <v>0.686874</v>
+        <v>1.246793</v>
       </c>
       <c r="O25">
-        <v>0.1107149500337364</v>
+        <v>0.110128758094306</v>
       </c>
       <c r="P25">
-        <v>0.1107149500337364</v>
+        <v>0.110128758094306</v>
       </c>
       <c r="Q25">
-        <v>6.725147463913333</v>
+        <v>9.609496765333223</v>
       </c>
       <c r="R25">
-        <v>60.52632717522</v>
+        <v>86.485470887999</v>
       </c>
       <c r="S25">
-        <v>0.04616913431255128</v>
+        <v>0.04429304286256632</v>
       </c>
       <c r="T25">
-        <v>0.04616913431255126</v>
+        <v>0.04429304286256631</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>29.37284333333333</v>
+        <v>23.12211433333333</v>
       </c>
       <c r="H26">
-        <v>88.11852999999999</v>
+        <v>69.366343</v>
       </c>
       <c r="I26">
-        <v>0.4170090335449991</v>
+        <v>0.4021932475133977</v>
       </c>
       <c r="J26">
-        <v>0.4170090335449991</v>
+        <v>0.4021932475133977</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.2827466666666667</v>
+        <v>0.937018</v>
       </c>
       <c r="N26">
-        <v>0.8482400000000001</v>
+        <v>2.811054</v>
       </c>
       <c r="O26">
-        <v>0.1367250022807918</v>
+        <v>0.2482993455658087</v>
       </c>
       <c r="P26">
-        <v>0.1367250022807917</v>
+        <v>0.2482993455658087</v>
       </c>
       <c r="Q26">
-        <v>8.305073543022223</v>
+        <v>21.66583732839133</v>
       </c>
       <c r="R26">
-        <v>74.7456618872</v>
+        <v>194.992535955522</v>
       </c>
       <c r="S26">
-        <v>0.05701556106255078</v>
+        <v>0.09986432014856396</v>
       </c>
       <c r="T26">
-        <v>0.05701556106255076</v>
+        <v>0.09986432014856395</v>
       </c>
     </row>
   </sheetData>
